--- a/files/SM2/K4/K4-T1.xlsx
+++ b/files/SM2/K4/K4-T1.xlsx
@@ -14,402 +14,315 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
-  <si>
-    <t>haastattelu</t>
-  </si>
-  <si>
-    <t>työpaikka</t>
-  </si>
-  <si>
-    <t>oy</t>
-  </si>
-  <si>
-    <t>ilmestyä</t>
-  </si>
-  <si>
-    <t>yritys</t>
-  </si>
-  <si>
-    <t>uutiset</t>
-  </si>
-  <si>
-    <t>sarja</t>
-  </si>
-  <si>
-    <t>työntekijä</t>
-  </si>
-  <si>
-    <t>olla vuorossa</t>
-  </si>
-  <si>
-    <t>lukuvuosi</t>
-  </si>
-  <si>
-    <t>opiskelijavaihto</t>
-  </si>
-  <si>
-    <t>viihtyä</t>
-  </si>
-  <si>
-    <t>ihastua</t>
-  </si>
-  <si>
-    <t>erityisesti</t>
-  </si>
-  <si>
-    <t>rauhallinen</t>
-  </si>
-  <si>
-    <t>luotettava</t>
-  </si>
-  <si>
-    <t>myöhemmin</t>
-  </si>
-  <si>
-    <t>valmistua</t>
-  </si>
-  <si>
-    <t>ammattikorkeakoulu</t>
-  </si>
-  <si>
-    <t>parikymmentä</t>
-  </si>
-  <si>
-    <t>työhakemus</t>
-  </si>
-  <si>
-    <t>kielteinen</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+  <si>
+    <t>vapaa-aika</t>
+  </si>
+  <si>
+    <t>harrastus</t>
+  </si>
+  <si>
+    <t>koripallo</t>
+  </si>
+  <si>
+    <t>harrastaa</t>
+  </si>
+  <si>
+    <t>aluksi</t>
+  </si>
+  <si>
+    <t>kuitenkin</t>
+  </si>
+  <si>
+    <t>sopiva</t>
+  </si>
+  <si>
+    <t>ei enää</t>
+  </si>
+  <si>
+    <t>kokeilla</t>
+  </si>
+  <si>
+    <t>joukkuelaji</t>
+  </si>
+  <si>
+    <t>paikallinen</t>
+  </si>
+  <si>
+    <t>viedä aikaa</t>
+  </si>
+  <si>
+    <t>harjoitella</t>
   </si>
   <si>
     <t>keksiä</t>
   </si>
   <si>
-    <t>pyytää apua</t>
-  </si>
-  <si>
-    <t>opiskelukaveri</t>
-  </si>
-  <si>
-    <t>kontakti</t>
-  </si>
-  <si>
-    <t>sitä kautta</t>
-  </si>
-  <si>
-    <t>päästä</t>
-  </si>
-  <si>
-    <t>koulutus</t>
-  </si>
-  <si>
-    <t>peruskoulu</t>
-  </si>
-  <si>
-    <t>hakea</t>
-  </si>
-  <si>
-    <t>ammattikoulu</t>
-  </si>
-  <si>
-    <t>valmistua +ksi</t>
-  </si>
-  <si>
-    <t>automekaanikko</t>
-  </si>
-  <si>
-    <t>autokorjaamo</t>
-  </si>
-  <si>
-    <t>pian</t>
-  </si>
-  <si>
-    <t>ala</t>
-  </si>
-  <si>
-    <t>pyrkiä</t>
-  </si>
-  <si>
-    <t>tieto- ja viestintätekniikka</t>
-  </si>
-  <si>
-    <t>opinnot</t>
-  </si>
-  <si>
-    <t>nykyinen</t>
-  </si>
-  <si>
-    <t>vaihteleva</t>
-  </si>
-  <si>
-    <t>yksin</t>
-  </si>
-  <si>
-    <t>ääressä</t>
-  </si>
-  <si>
-    <t>projekti</t>
-  </si>
-  <si>
-    <t>työskennellä</t>
-  </si>
-  <si>
-    <t>tiimi</t>
-  </si>
-  <si>
-    <t>osallistua</t>
-  </si>
-  <si>
-    <t>projektipäällikkö</t>
+    <t>ratkaisu</t>
+  </si>
+  <si>
+    <t>perustaa</t>
+  </si>
+  <si>
+    <t>salibandy</t>
+  </si>
+  <si>
+    <t>läheinen</t>
+  </si>
+  <si>
+    <t>liikuntasali</t>
+  </si>
+  <si>
+    <t>aiemmin</t>
+  </si>
+  <si>
+    <t>kovin paljon</t>
+  </si>
+  <si>
+    <t>enemmän</t>
+  </si>
+  <si>
+    <t>oikeastaan</t>
+  </si>
+  <si>
+    <t>tosin</t>
   </si>
   <si>
     <t>oppia</t>
   </si>
   <si>
-    <t>ennen kuin</t>
-  </si>
-  <si>
-    <t>aloittaa</t>
-  </si>
-  <si>
-    <t>intensiivikurssi</t>
-  </si>
-  <si>
-    <t>erilainen</t>
-  </si>
-  <si>
-    <t>käyttää</t>
-  </si>
-  <si>
-    <t>olla mukana</t>
-  </si>
-  <si>
-    <t>kansainvälinen</t>
-  </si>
-  <si>
-    <t>yrittää</t>
-  </si>
-  <si>
-    <t>mahdollisimman paljon</t>
-  </si>
-  <si>
-    <t>lounas</t>
-  </si>
-  <si>
-    <t>firma</t>
-  </si>
-  <si>
-    <t>pelimatka</t>
-  </si>
-  <si>
-    <t>olla pakko</t>
-  </si>
-  <si>
-    <t>opetella</t>
-  </si>
-  <si>
-    <t>paras</t>
-  </si>
-  <si>
-    <t>ehdottomasti</t>
-  </si>
-  <si>
-    <t>interview</t>
-  </si>
-  <si>
-    <t>workplace</t>
-  </si>
-  <si>
-    <t>limited company</t>
-  </si>
-  <si>
-    <t>to appear</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>to be one's turn</t>
-  </si>
-  <si>
-    <t>academic year</t>
-  </si>
-  <si>
-    <t>student exchange</t>
-  </si>
-  <si>
-    <t>to enjoy oneself</t>
-  </si>
-  <si>
-    <t>to fall for</t>
+    <t>rento</t>
+  </si>
+  <si>
+    <t>aktiivisesti</t>
+  </si>
+  <si>
+    <t>kaikenlainen</t>
+  </si>
+  <si>
+    <t>nykyään</t>
+  </si>
+  <si>
+    <t>nauttia</t>
+  </si>
+  <si>
+    <t>makoilla</t>
+  </si>
+  <si>
+    <t>tietokirja</t>
+  </si>
+  <si>
+    <t>olla kiinnostunut</t>
+  </si>
+  <si>
+    <t>varsinkin</t>
+  </si>
+  <si>
+    <t>liikkua</t>
+  </si>
+  <si>
+    <t>ulkoilla</t>
+  </si>
+  <si>
+    <t>talviuinti</t>
+  </si>
+  <si>
+    <t>Vau!</t>
+  </si>
+  <si>
+    <t>-pa/pä</t>
+  </si>
+  <si>
+    <t>rohkea</t>
+  </si>
+  <si>
+    <t>ei edes</t>
+  </si>
+  <si>
+    <t>itse asiassa</t>
+  </si>
+  <si>
+    <t>musta</t>
+  </si>
+  <si>
+    <t>samalla</t>
+  </si>
+  <si>
+    <t>kuoro</t>
+  </si>
+  <si>
+    <t>innokas</t>
+  </si>
+  <si>
+    <t>penkkiurheilija</t>
+  </si>
+  <si>
+    <t>urheilu</t>
+  </si>
+  <si>
+    <t>telkkari</t>
+  </si>
+  <si>
+    <t>jääkiekko-ottelu</t>
+  </si>
+  <si>
+    <t>kannustaa</t>
+  </si>
+  <si>
+    <t>huutaa</t>
+  </si>
+  <si>
+    <t>free time</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>to have as a hobby</t>
+  </si>
+  <si>
+    <t>at first</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>suitable</t>
+  </si>
+  <si>
+    <t>no longer</t>
+  </si>
+  <si>
+    <t>to try</t>
+  </si>
+  <si>
+    <t>team sport</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>to take time</t>
+  </si>
+  <si>
+    <t>to practice</t>
+  </si>
+  <si>
+    <t>to invent/come up with</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>to found/establish</t>
+  </si>
+  <si>
+    <t>floorball</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>gymnasium</t>
+  </si>
+  <si>
+    <t>earlier</t>
+  </si>
+  <si>
+    <t>very much</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>though</t>
+  </si>
+  <si>
+    <t>to learn</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>actively</t>
+  </si>
+  <si>
+    <t>all kinds of</t>
+  </si>
+  <si>
+    <t>nowadays</t>
+  </si>
+  <si>
+    <t>to enjoy</t>
+  </si>
+  <si>
+    <t>to lounge</t>
+  </si>
+  <si>
+    <t>non-fiction book</t>
+  </si>
+  <si>
+    <t>to be interested in</t>
   </si>
   <si>
     <t>especially</t>
   </si>
   <si>
-    <t>calm</t>
-  </si>
-  <si>
-    <t>reliable</t>
-  </si>
-  <si>
-    <t>later</t>
-  </si>
-  <si>
-    <t>to graduate</t>
-  </si>
-  <si>
-    <t>university of applied sciences</t>
-  </si>
-  <si>
-    <t>about twenty</t>
-  </si>
-  <si>
-    <t>job application</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>to invent, come up with</t>
-  </si>
-  <si>
-    <t>to ask for help</t>
-  </si>
-  <si>
-    <t>fellow student</t>
-  </si>
-  <si>
-    <t>contact</t>
-  </si>
-  <si>
-    <t>through that</t>
-  </si>
-  <si>
-    <t>to get in</t>
-  </si>
-  <si>
-    <t>education</t>
-  </si>
-  <si>
-    <t>comprehensive school</t>
-  </si>
-  <si>
-    <t>to apply</t>
-  </si>
-  <si>
-    <t>vocational school</t>
-  </si>
-  <si>
-    <t>to graduate as</t>
-  </si>
-  <si>
-    <t>car mechanic</t>
-  </si>
-  <si>
-    <t>car repair shop</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>field, branch</t>
-  </si>
-  <si>
-    <t>to strive, aim at</t>
-  </si>
-  <si>
-    <t>information and communication technology</t>
-  </si>
-  <si>
-    <t>studies</t>
-  </si>
-  <si>
-    <t>current</t>
-  </si>
-  <si>
-    <t>varied</t>
-  </si>
-  <si>
-    <t>alone</t>
-  </si>
-  <si>
-    <t>at (e.g. table, computer)</t>
-  </si>
-  <si>
-    <t>project</t>
-  </si>
-  <si>
-    <t>to work</t>
-  </si>
-  <si>
-    <t>team</t>
-  </si>
-  <si>
-    <t>to participate</t>
-  </si>
-  <si>
-    <t>project manager</t>
-  </si>
-  <si>
-    <t>to learn</t>
-  </si>
-  <si>
-    <t>before</t>
-  </si>
-  <si>
-    <t>to start</t>
-  </si>
-  <si>
-    <t>intensive course</t>
-  </si>
-  <si>
-    <t>different</t>
-  </si>
-  <si>
-    <t>to use</t>
-  </si>
-  <si>
-    <t>to be involved in</t>
-  </si>
-  <si>
-    <t>international</t>
-  </si>
-  <si>
-    <t>to try</t>
-  </si>
-  <si>
-    <t>as much as possible</t>
-  </si>
-  <si>
-    <t>lunch</t>
-  </si>
-  <si>
-    <t>company (colloquial)</t>
-  </si>
-  <si>
-    <t>game trip</t>
-  </si>
-  <si>
-    <t>to have to</t>
-  </si>
-  <si>
-    <t>to learn (a skill)</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>absolutely</t>
+    <t>to move/exercise</t>
+  </si>
+  <si>
+    <t>to be outdoors</t>
+  </si>
+  <si>
+    <t>winter swimming</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>emphasizing suffix</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>not even</t>
+  </si>
+  <si>
+    <t>I think</t>
+  </si>
+  <si>
+    <t>at the same time</t>
+  </si>
+  <si>
+    <t>choir</t>
+  </si>
+  <si>
+    <t>enthusiastic</t>
+  </si>
+  <si>
+    <t>spectator sports fan</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>ice hockey match</t>
+  </si>
+  <si>
+    <t>to cheer</t>
+  </si>
+  <si>
+    <t>to shout</t>
   </si>
 </sst>
 </file>
@@ -741,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -752,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -760,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -768,7 +681,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -776,7 +689,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -784,7 +697,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -792,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -800,7 +713,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -808,7 +721,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -816,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -824,7 +737,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -832,7 +745,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -840,7 +753,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -848,7 +761,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>78</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -856,7 +769,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -864,7 +777,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -872,7 +785,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -880,7 +793,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -888,7 +801,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -896,7 +809,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -904,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -912,7 +825,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -920,7 +833,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -928,7 +841,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -936,7 +849,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -944,7 +857,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -952,7 +865,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -960,7 +873,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -968,7 +881,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -976,7 +889,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -984,7 +897,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -992,7 +905,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1000,7 +913,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1008,7 +921,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1016,7 +929,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1024,7 +937,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1032,7 +945,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1040,7 +953,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1048,7 +961,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1056,7 +969,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1064,7 +977,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1072,7 +985,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1080,7 +993,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1088,7 +1001,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1096,7 +1009,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1104,7 +1017,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1112,7 +1025,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1120,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1128,7 +1041,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1136,7 +1049,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1144,7 +1057,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1152,7 +1065,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1160,119 +1073,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/files/SM2/K4/K4-T1.xlsx
+++ b/files/SM2/K4/K4-T1.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM2\K4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB558CA-C5A7-4C93-A4B6-48458DA1295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>vapaa-aika</t>
   </si>
@@ -139,202 +145,216 @@
     <t>ei edes</t>
   </si>
   <si>
+    <t>musta</t>
+  </si>
+  <si>
+    <t>samalla</t>
+  </si>
+  <si>
+    <t>kuoro</t>
+  </si>
+  <si>
+    <t>innokas</t>
+  </si>
+  <si>
+    <t>penkkiurheilija</t>
+  </si>
+  <si>
+    <t>urheilu</t>
+  </si>
+  <si>
+    <t>telkkari</t>
+  </si>
+  <si>
+    <t>jääkiekko-ottelu</t>
+  </si>
+  <si>
+    <t>kannustaa</t>
+  </si>
+  <si>
+    <t>huutaa</t>
+  </si>
+  <si>
+    <t>free time</t>
+  </si>
+  <si>
+    <t>hobby</t>
+  </si>
+  <si>
+    <t>basketball</t>
+  </si>
+  <si>
+    <t>to have as a hobby</t>
+  </si>
+  <si>
+    <t>at first</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>suitable</t>
+  </si>
+  <si>
+    <t>no longer</t>
+  </si>
+  <si>
+    <t>to try</t>
+  </si>
+  <si>
+    <t>team sport</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>to take time</t>
+  </si>
+  <si>
+    <t>to practice</t>
+  </si>
+  <si>
+    <t>to invent/come up with</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>to found/establish</t>
+  </si>
+  <si>
+    <t>floorball</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>gymnasium</t>
+  </si>
+  <si>
+    <t>earlier</t>
+  </si>
+  <si>
+    <t>very much</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>actually</t>
+  </si>
+  <si>
+    <t>to learn</t>
+  </si>
+  <si>
+    <t>relaxed</t>
+  </si>
+  <si>
+    <t>actively</t>
+  </si>
+  <si>
+    <t>all kinds of</t>
+  </si>
+  <si>
+    <t>nowadays</t>
+  </si>
+  <si>
+    <t>to enjoy</t>
+  </si>
+  <si>
+    <t>to lounge</t>
+  </si>
+  <si>
+    <t>non-fiction book</t>
+  </si>
+  <si>
+    <t>to be interested in</t>
+  </si>
+  <si>
+    <t>especially</t>
+  </si>
+  <si>
+    <t>to move/exercise</t>
+  </si>
+  <si>
+    <t>to be outdoors</t>
+  </si>
+  <si>
+    <t>winter swimming</t>
+  </si>
+  <si>
+    <t>Wow!</t>
+  </si>
+  <si>
+    <t>emphasizing suffix</t>
+  </si>
+  <si>
+    <t>brave</t>
+  </si>
+  <si>
+    <t>not even</t>
+  </si>
+  <si>
+    <t>at the same time</t>
+  </si>
+  <si>
+    <t>choir</t>
+  </si>
+  <si>
+    <t>enthusiastic</t>
+  </si>
+  <si>
+    <t>spectator sports fan</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>TV</t>
+  </si>
+  <si>
+    <t>ice hockey match</t>
+  </si>
+  <si>
+    <t>to cheer</t>
+  </si>
+  <si>
+    <t>to shout</t>
+  </si>
+  <si>
+    <t>though/indeed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>itse asiassa</t>
-  </si>
-  <si>
-    <t>musta</t>
-  </si>
-  <si>
-    <t>samalla</t>
-  </si>
-  <si>
-    <t>kuoro</t>
-  </si>
-  <si>
-    <t>innokas</t>
-  </si>
-  <si>
-    <t>penkkiurheilija</t>
-  </si>
-  <si>
-    <t>urheilu</t>
-  </si>
-  <si>
-    <t>telkkari</t>
-  </si>
-  <si>
-    <t>jääkiekko-ottelu</t>
-  </si>
-  <si>
-    <t>kannustaa</t>
-  </si>
-  <si>
-    <t>huutaa</t>
-  </si>
-  <si>
-    <t>free time</t>
-  </si>
-  <si>
-    <t>hobby</t>
-  </si>
-  <si>
-    <t>basketball</t>
-  </si>
-  <si>
-    <t>to have as a hobby</t>
-  </si>
-  <si>
-    <t>at first</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>suitable</t>
-  </si>
-  <si>
-    <t>no longer</t>
-  </si>
-  <si>
-    <t>to try</t>
-  </si>
-  <si>
-    <t>team sport</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>to take time</t>
-  </si>
-  <si>
-    <t>to practice</t>
-  </si>
-  <si>
-    <t>to invent/come up with</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>to found/establish</t>
-  </si>
-  <si>
-    <t>floorball</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>gymnasium</t>
-  </si>
-  <si>
-    <t>earlier</t>
-  </si>
-  <si>
-    <t>very much</t>
-  </si>
-  <si>
-    <t>more</t>
-  </si>
-  <si>
-    <t>actually</t>
-  </si>
-  <si>
-    <t>though</t>
-  </si>
-  <si>
-    <t>to learn</t>
-  </si>
-  <si>
-    <t>relaxed</t>
-  </si>
-  <si>
-    <t>actively</t>
-  </si>
-  <si>
-    <t>all kinds of</t>
-  </si>
-  <si>
-    <t>nowadays</t>
-  </si>
-  <si>
-    <t>to enjoy</t>
-  </si>
-  <si>
-    <t>to lounge</t>
-  </si>
-  <si>
-    <t>non-fiction book</t>
-  </si>
-  <si>
-    <t>to be interested in</t>
-  </si>
-  <si>
-    <t>especially</t>
-  </si>
-  <si>
-    <t>to move/exercise</t>
-  </si>
-  <si>
-    <t>to be outdoors</t>
-  </si>
-  <si>
-    <t>winter swimming</t>
-  </si>
-  <si>
-    <t>Wow!</t>
-  </si>
-  <si>
-    <t>emphasizing suffix</t>
-  </si>
-  <si>
-    <t>brave</t>
-  </si>
-  <si>
-    <t>not even</t>
-  </si>
-  <si>
-    <t>I think</t>
-  </si>
-  <si>
-    <t>at the same time</t>
-  </si>
-  <si>
-    <t>choir</t>
-  </si>
-  <si>
-    <t>enthusiastic</t>
-  </si>
-  <si>
-    <t>spectator sports fan</t>
-  </si>
-  <si>
-    <t>sports</t>
-  </si>
-  <si>
-    <t>TV</t>
-  </si>
-  <si>
-    <t>ice hockey match</t>
-  </si>
-  <si>
-    <t>to cheer</t>
-  </si>
-  <si>
-    <t>to shout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a matter of fact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -366,13 +386,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -410,7 +438,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -444,6 +472,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -478,9 +507,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,430 +683,433 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>102</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/files/SM2/K4/K4-T1.xlsx
+++ b/files/SM2/K4/K4-T1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\finnish-space\files\SM2\K4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB558CA-C5A7-4C93-A4B6-48458DA1295C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9E4774-CBE1-47A5-84E2-8A470B5C2FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2960" yWindow="2960" windowWidth="17720" windowHeight="8580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -145,9 +145,6 @@
     <t>ei edes</t>
   </si>
   <si>
-    <t>musta</t>
-  </si>
-  <si>
     <t>samalla</t>
   </si>
   <si>
@@ -326,15 +323,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>black</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>itse asiassa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>as a matter of fact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>musta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I think(spoken)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -697,7 +698,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -705,7 +706,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -713,7 +714,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -721,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -729,7 +730,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -737,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -745,7 +746,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -753,7 +754,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -761,7 +762,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -769,7 +770,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -777,7 +778,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,7 +786,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -793,7 +794,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -801,7 +802,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -809,7 +810,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -817,7 +818,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -825,7 +826,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -833,7 +834,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -841,7 +842,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -849,7 +850,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -857,7 +858,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -865,7 +866,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -873,7 +874,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -881,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -889,7 +890,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -897,7 +898,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -905,7 +906,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -913,7 +914,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -921,7 +922,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -929,7 +930,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -937,7 +938,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -945,7 +946,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -953,7 +954,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -961,7 +962,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -969,7 +970,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -977,7 +978,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -985,7 +986,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -993,7 +994,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1001,7 +1002,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1009,7 +1010,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1017,95 +1018,95 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>41</v>
+        <v>102</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
